--- a/documentation/03_詳細設計/02_API設計/00_ムービー一覧取得_API設計書.xlsx
+++ b/documentation/03_詳細設計/02_API設計/00_ムービー一覧取得_API設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Java\class\Documentation\OJT Project\03_詳細設計\02_API設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Java\class\Eclipse\ojt-project\documentation\03_詳細設計\02_API設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本APIはムービーリストを取得するAPIです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HTTPレスポンス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -285,6 +281,9 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>本APIはムービーリストを取得するAPIです。</t>
   </si>
 </sst>
 </file>
@@ -855,7 +854,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.65"/>
@@ -870,7 +869,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.7">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.05" customHeight="1">
@@ -878,16 +877,16 @@
     </row>
     <row r="3" spans="1:4" ht="21.3">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.05" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.05" customHeight="1">
@@ -895,7 +894,7 @@
     </row>
     <row r="6" spans="1:4" ht="20.05" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -942,10 +941,10 @@
     </row>
     <row r="12" spans="1:4" ht="21.3">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.3">
@@ -1051,7 +1050,7 @@
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.3">
@@ -1095,7 +1094,7 @@
     </row>
     <row r="31" spans="1:8" ht="21.3">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -1111,15 +1110,15 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1127,13 +1126,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1141,13 +1140,13 @@
         <v>200</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1202,7 +1201,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="281.75">
       <c r="A2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1223,22 +1222,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
